--- a/LOGS/c08ab5f6-9c14-4d0f-8f59-5e26dc427f76/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/c08ab5f6-9c14-4d0f-8f59-5e26dc427f76/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="164">
   <si>
     <t>line_item_0</t>
   </si>
@@ -380,6 +380,48 @@
     <t>(c) Current tax liability</t>
   </si>
   <si>
+    <t>In respect of the current year</t>
+  </si>
+  <si>
+    <t>In respect of the prior year</t>
+  </si>
+  <si>
+    <t>Total tax expense relating to continuing operations</t>
+  </si>
+  <si>
+    <t>Profit from operations</t>
+  </si>
+  <si>
+    <t>Income tax expense calculated at 30%</t>
+  </si>
+  <si>
+    <t>Share of losses of associates accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Non deductible entertainment and other items</t>
+  </si>
+  <si>
+    <t>Non assessable disposal of investment</t>
+  </si>
+  <si>
+    <t>Over provision of prior year</t>
+  </si>
+  <si>
+    <t>Income tax relating to other adjustments</t>
+  </si>
+  <si>
+    <t>Arising on gains/(losses) of hedging instruments in cash flow hedges transferred to the initial carrying amounts of hedged items</t>
+  </si>
+  <si>
+    <t>Current tax</t>
+  </si>
+  <si>
+    <t>Deferred tax</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows:</t>
+  </si>
+  <si>
     <t>2023 $000</t>
   </si>
   <si>
@@ -485,13 +527,13 @@
     <t>Other revenue</t>
   </si>
   <si>
-    <t>2(d)</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Borrowing costs</t>
+    <t>Borrowing cost</t>
+  </si>
+  <si>
+    <t>Interest paid for leasing liability</t>
+  </si>
+  <si>
+    <t>2(c)</t>
   </si>
 </sst>
 </file>
@@ -2397,24 +2439,604 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>-132226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>-326309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>41970</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>-668</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>10301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>1588</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>53191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>935848</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>280754</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9">
+        <v>-226393</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>187</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>-1308</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12">
+        <v>919</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13">
+        <v>-968</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14">
+        <v>53191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>1195</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18">
+        <v>5741</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19">
+        <v>4713</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <v>-4122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21">
+        <v>7527</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22">
+        <v>914909</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23">
+        <v>274473</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24">
+        <v>-268882</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25">
+        <v>253</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27">
+        <v>1619</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29">
+        <v>7527</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30">
+        <v>293</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31">
+        <v>293</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2461,7 +3083,7 @@
         <v>-132226</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G2">
         <v>2023</v>
@@ -2478,7 +3100,7 @@
         <v>87013</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G3">
         <v>2023</v>
@@ -2495,7 +3117,7 @@
         <v>-43372</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>2023</v>
@@ -2512,7 +3134,7 @@
         <v>43641</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G5">
         <v>2023</v>
@@ -2535,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G6">
         <v>2023</v>
@@ -2558,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G7">
         <v>2023</v>
@@ -2581,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G8">
         <v>2023</v>
@@ -2604,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G9">
         <v>2023</v>
@@ -2627,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G10">
         <v>2023</v>
@@ -2650,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G11">
         <v>2023</v>
@@ -2673,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G12">
         <v>2023</v>
@@ -2696,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G13">
         <v>2023</v>
@@ -2716,7 +3338,7 @@
         <v>-29406</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G14">
         <v>2023</v>
@@ -2739,7 +3361,7 @@
         <v>-29406</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G15">
         <v>2023</v>
@@ -2762,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G16">
         <v>2023</v>
@@ -2785,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G17">
         <v>2023</v>
@@ -2808,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G18">
         <v>2023</v>
@@ -2831,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G19">
         <v>2023</v>
@@ -2854,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G20">
         <v>2023</v>
@@ -2877,7 +3499,7 @@
         <v>-293</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G21">
         <v>2023</v>
@@ -2900,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G22">
         <v>2023</v>
@@ -2923,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G23">
         <v>2023</v>
@@ -2943,7 +3565,7 @@
         <v>4472</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G24">
         <v>2023</v>
@@ -2966,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G25">
         <v>2023</v>
@@ -2983,7 +3605,7 @@
         <v>-326309</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G26">
         <v>2022</v>
@@ -3000,7 +3622,7 @@
         <v>106723</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G27">
         <v>2022</v>
@@ -3017,7 +3639,7 @@
         <v>-21787</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G28">
         <v>2022</v>
@@ -3034,7 +3656,7 @@
         <v>84936</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G29">
         <v>2022</v>
@@ -3057,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G30">
         <v>2022</v>
@@ -3080,7 +3702,7 @@
         <v>2363</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G31">
         <v>2022</v>
@@ -3103,7 +3725,7 @@
         <v>2308</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G32">
         <v>2022</v>
@@ -3126,7 +3748,7 @@
         <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G33">
         <v>2022</v>
@@ -3149,7 +3771,7 @@
         <v>10001</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G34">
         <v>2022</v>
@@ -3172,7 +3794,7 @@
         <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G35">
         <v>2022</v>
@@ -3195,7 +3817,7 @@
         <v>-38904</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G36">
         <v>2022</v>
@@ -3218,7 +3840,7 @@
         <v>167</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G37">
         <v>2022</v>
@@ -3238,7 +3860,7 @@
         <v>67442</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G38">
         <v>2022</v>
@@ -3261,7 +3883,7 @@
         <v>43641</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G39">
         <v>2022</v>
@@ -3284,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G40">
         <v>2022</v>
@@ -3307,7 +3929,7 @@
         <v>2882</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G41">
         <v>2022</v>
@@ -3330,7 +3952,7 @@
         <v>2122</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G42">
         <v>2022</v>
@@ -3353,7 +3975,7 @@
         <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G43">
         <v>2022</v>
@@ -3376,7 +3998,7 @@
         <v>6416</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G44">
         <v>2022</v>
@@ -3399,7 +4021,7 @@
         <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G45">
         <v>2022</v>
@@ -3422,7 +4044,7 @@
         <v>-23889</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G46">
         <v>2022</v>
@@ -3445,7 +4067,7 @@
         <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G47">
         <v>2022</v>
@@ -3465,7 +4087,7 @@
         <v>96848</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G48">
         <v>2022</v>
@@ -3488,7 +4110,7 @@
         <v>84936</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G49">
         <v>2022</v>
@@ -3529,7 +4151,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -3546,7 +4168,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -3563,7 +4185,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -3597,7 +4219,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -3614,7 +4236,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -3631,7 +4253,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3698,7 +4320,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D2">
         <v>5184850</v>
@@ -3712,7 +4334,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3726,7 +4348,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>6443036</v>
@@ -3740,7 +4362,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>114943</v>
@@ -3854,7 +4476,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -3871,7 +4493,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -4154,7 +4776,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -4171,7 +4793,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -4236,16 +4858,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>10000000</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -4256,13 +4878,13 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>10000000</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>2022</v>
@@ -4273,13 +4895,13 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>10000000</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -4287,16 +4909,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>20000000</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -4307,13 +4929,13 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>20000000</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -4324,13 +4946,13 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>20000000</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -4386,10 +5008,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>67677</v>
@@ -4403,10 +5022,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>-4414</v>
@@ -4420,10 +5036,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>100647</v>
@@ -4437,10 +5050,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>104966</v>
@@ -4454,10 +5064,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>-253</v>
@@ -4471,10 +5078,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>-37036</v>
@@ -4488,10 +5092,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>67677</v>
@@ -4505,10 +5106,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4522,10 +5120,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C10">
         <v>29</v>
@@ -4539,10 +5134,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C11">
         <v>90</v>
@@ -4556,10 +5148,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>-4414</v>
@@ -4603,10 +5192,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C2">
         <v>2882689</v>
@@ -4620,10 +5209,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C3">
         <v>882657</v>
@@ -4637,10 +5226,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>-843000</v>
@@ -4654,10 +5243,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4671,10 +5260,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C6">
         <v>2922346</v>
@@ -4688,10 +5277,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>2732305</v>
@@ -4705,10 +5294,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>907382</v>
@@ -4722,10 +5311,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>-756000</v>
@@ -4739,10 +5328,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>-998</v>
@@ -4756,10 +5345,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C11">
         <v>2882689</v>
@@ -4803,10 +5392,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C2">
         <v>191979</v>
@@ -4820,10 +5409,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>6529</v>
@@ -4840,7 +5429,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>198508</v>
@@ -4854,10 +5443,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>199304</v>
@@ -4871,10 +5460,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C6">
         <v>22962</v>
@@ -4891,7 +5480,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C7">
         <v>222266</v>
@@ -4947,10 +5536,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>147275</v>
@@ -4964,10 +5553,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C3">
         <v>9728</v>
@@ -4981,10 +5570,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4998,10 +5587,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C5">
         <v>129489</v>
@@ -5015,10 +5604,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C6">
         <v>1164</v>
@@ -5035,7 +5624,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C7">
         <v>287656</v>
@@ -5049,10 +5638,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C8">
         <v>23006</v>
@@ -5066,10 +5655,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C9">
         <v>11395</v>
@@ -5083,10 +5672,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C10">
         <v>2339</v>
@@ -5100,10 +5689,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5117,10 +5706,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C12">
         <v>979</v>
@@ -5137,7 +5726,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C13">
         <v>37719</v>
@@ -5156,192 +5745,132 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2">
+        <v>134989</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4">
+        <v>135086</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5">
+        <v>22818</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6">
-        <v>134989</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8">
-        <v>135086</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10">
-        <v>22818</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11">
-        <v>139</v>
-      </c>
-      <c r="D11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12">
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7">
         <v>22957</v>
       </c>
-      <c r="D12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
